--- a/data/outputs/management_altmetric/29.xlsx
+++ b/data/outputs/management_altmetric/29.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE30"/>
+  <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1264,6 +1272,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1507,6 +1518,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,6 +2014,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2246,6 +2266,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2493,6 +2516,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2732,6 +2758,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3007,6 +3036,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3286,6 +3318,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3555,6 +3590,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,6 +3852,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4049,6 +4090,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4322,6 +4366,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4587,6 +4634,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4842,6 +4892,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5085,6 +5138,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5340,6 +5396,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5571,6 +5630,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5820,6 +5882,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6065,6 +6130,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6312,6 +6380,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6555,6 +6626,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6804,6 +6878,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7051,6 +7128,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7292,6 +7372,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7531,6 +7614,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7776,6 +7862,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8025,6 +8114,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
